--- a/ORIGENAL TEA RECEPIT-2021-22.xlsx
+++ b/ORIGENAL TEA RECEPIT-2021-22.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 21-22" sheetId="38" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="39" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 21-22'!$A$3:$M$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 21-22'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$2:$E$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t xml:space="preserve">NAME OF THE PARTEY </t>
   </si>
@@ -61,17 +63,260 @@
     <t>TOTAL ORIGANAL TEA RECEVID OF APRIL 2021-22</t>
   </si>
   <si>
-    <t>ORIGANAL TEA RECEIVED FOR THE MONTH OF APRIL 2021-22</t>
+    <t>03.08.2021</t>
+  </si>
+  <si>
+    <t>21.07.2021</t>
+  </si>
+  <si>
+    <t>GS/172/21-22</t>
+  </si>
+  <si>
+    <t>SKIKARPUR &amp; BHANDAPUR TEA ESTATES PVT.LTD.</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>DIANA TEA COMPANY LTD.</t>
+  </si>
+  <si>
+    <t>G/I/0066/21-22</t>
+  </si>
+  <si>
+    <t>22.07.2021</t>
+  </si>
+  <si>
+    <t>WB-73-E-9830</t>
+  </si>
+  <si>
+    <t>RANICHERA TEA COMPANY LTD.</t>
+  </si>
+  <si>
+    <t>RTFAC/TI116/2122</t>
+  </si>
+  <si>
+    <t>ORIGANAL TEA RECEIVED FOR THE MONTH OF AUGUST 2021-22</t>
+  </si>
+  <si>
+    <t>09.08.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/002</t>
+  </si>
+  <si>
+    <t>PATAKA  INDUSTRIES PVT.LTD.</t>
+  </si>
+  <si>
+    <t>NL-01-AE-1039</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>12.08.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/001</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>HR-38-R-9907</t>
+  </si>
+  <si>
+    <t>BTE/159/2122</t>
+  </si>
+  <si>
+    <t>THE BELGACHI TEA CO. LTD.</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>04.08.2021</t>
+  </si>
+  <si>
+    <t>MTCSLG/209/21-22</t>
+  </si>
+  <si>
+    <t>MOGULKATA TEA COMPANY (PVT) LTD.</t>
+  </si>
+  <si>
+    <t>GST/CTC/50/21-22</t>
+  </si>
+  <si>
+    <t>DEBIJHORA TEA CO. LTD.</t>
+  </si>
+  <si>
+    <t>16.08.2021</t>
+  </si>
+  <si>
+    <t>BTI/205/21-22</t>
+  </si>
+  <si>
+    <t>BHARNOBARI TEA AND INDUSTRIES LTD.</t>
+  </si>
+  <si>
+    <t>NL-01-AE-1037</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>SY/0295/21-22</t>
+  </si>
+  <si>
+    <t>SYLEE TEA ESTATE P LTD.</t>
+  </si>
+  <si>
+    <t>NS/0197/2021-22</t>
+  </si>
+  <si>
+    <t>NYASLYEE TEA ESTSTE P LTD.</t>
+  </si>
+  <si>
+    <t>07.08.2021</t>
+  </si>
+  <si>
+    <t>LTE/319/21-22</t>
+  </si>
+  <si>
+    <t>GIRIRAJ PLANTATIONS PVT.LTD.</t>
+  </si>
+  <si>
+    <t>LTE/325/21-22</t>
+  </si>
+  <si>
+    <t>19.08.2021</t>
+  </si>
+  <si>
+    <t>10.08.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/003</t>
+  </si>
+  <si>
+    <t>CG-04-JD-0392</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>23.08.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/004</t>
+  </si>
+  <si>
+    <t>13.08.2021</t>
+  </si>
+  <si>
+    <t>RTSLG/TI022/2122</t>
+  </si>
+  <si>
+    <t>RANICHERRA TEA CO. LTD.</t>
+  </si>
+  <si>
+    <t>RTFAC/TI138/2122</t>
+  </si>
+  <si>
+    <t>WB-73-C-4212</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>24.08.2021</t>
+  </si>
+  <si>
+    <t>17.08.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/20-21/005</t>
+  </si>
+  <si>
+    <t>HR-38-Z-5523</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>27.08.2021</t>
+  </si>
+  <si>
+    <t>26.08.2021</t>
+  </si>
+  <si>
+    <t>31.07.2021</t>
+  </si>
+  <si>
+    <t>GST/033/21-22</t>
+  </si>
+  <si>
+    <t>CENTRAL TEA CO.</t>
+  </si>
+  <si>
+    <t>GUW</t>
+  </si>
+  <si>
+    <t>NL-01-AE-0488</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/006</t>
+  </si>
+  <si>
+    <t>UP-14-GT-5801</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Arrival Date</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale No. </t>
+  </si>
+  <si>
+    <t>Pkg.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Old Stock</t>
+  </si>
+  <si>
+    <t>Total Original Tea Stock</t>
+  </si>
+  <si>
+    <t>KOL</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Sale No. Wise as on 28.08.2021-22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +360,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -169,21 +479,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -338,31 +633,196 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -383,6 +843,147 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -396,51 +997,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -449,89 +1041,284 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,590 +1616,981 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" activeCellId="2" sqref="H4:H6 H9:H16 H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="25" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="89"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="24">
+        <v>100</v>
+      </c>
+      <c r="H4" s="26">
+        <v>3800</v>
+      </c>
+      <c r="I4" s="26">
+        <v>895436</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="27">
+        <v>801168568474</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="15"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3">
+        <v>60</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2280</v>
+      </c>
+      <c r="I5" s="8">
+        <v>577744.02</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="1">
+        <v>891168758618</v>
+      </c>
+      <c r="L5" s="82"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" s="17" customFormat="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="17" customFormat="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" s="17" customFormat="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="6"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>140</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5320</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1204342</v>
+      </c>
+      <c r="J6" s="80"/>
+      <c r="K6" s="1">
+        <v>841168809656</v>
+      </c>
+      <c r="L6" s="83"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3">
+        <v>431</v>
+      </c>
+      <c r="H7" s="8">
+        <v>14922.8</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3714166</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1">
+        <v>871170884541</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3">
+        <v>405</v>
+      </c>
+      <c r="H8" s="8">
+        <v>13715</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3196678</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1">
+        <v>891170883656</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1">
+      <c r="A9" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3040</v>
+      </c>
+      <c r="I9" s="8">
+        <v>594350</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1">
+        <v>871171135828</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="6"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1560</v>
+      </c>
+      <c r="I10" s="8">
+        <v>321048</v>
+      </c>
+      <c r="J10" s="79"/>
+      <c r="K10" s="1">
+        <v>871171135828</v>
+      </c>
+      <c r="L10" s="82"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="6"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="3">
+        <v>61</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2135</v>
+      </c>
+      <c r="I11" s="8">
+        <v>402288</v>
+      </c>
+      <c r="J11" s="80"/>
+      <c r="K11" s="1">
+        <v>881171081582</v>
+      </c>
+      <c r="L11" s="83"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="6"/>
+      <c r="A12" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3">
+        <v>140</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3780</v>
+      </c>
+      <c r="I12" s="8">
+        <v>836268</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1">
+        <v>811172020749</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="6"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="3">
+        <v>80</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I13" s="8">
+        <v>519234</v>
+      </c>
+      <c r="J13" s="79"/>
+      <c r="K13" s="1">
+        <v>841171151148</v>
+      </c>
+      <c r="L13" s="82"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="3">
+        <v>55</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1650</v>
+      </c>
+      <c r="I14" s="8">
+        <v>352536</v>
+      </c>
+      <c r="J14" s="79"/>
+      <c r="K14" s="1">
+        <v>831171155345</v>
+      </c>
+      <c r="L14" s="82"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="6"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="3">
+        <v>56</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1456</v>
+      </c>
+      <c r="I15" s="8">
+        <v>327629</v>
+      </c>
+      <c r="J15" s="79"/>
+      <c r="K15" s="1">
+        <v>871171629813</v>
+      </c>
+      <c r="L15" s="82"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="6"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="3">
+        <v>255</v>
+      </c>
+      <c r="H16" s="8">
+        <v>6855</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1513993</v>
+      </c>
+      <c r="J16" s="80"/>
+      <c r="K16" s="1">
+        <v>821171986036</v>
+      </c>
+      <c r="L16" s="83"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="8">
+        <v>17900.599999999999</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4069066</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="1">
+        <v>811172136918</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
+      <c r="A18" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="8">
+        <v>7039</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1604280</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>69</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="6"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1140</v>
+      </c>
+      <c r="I19" s="8">
+        <v>243996</v>
+      </c>
+      <c r="J19" s="79"/>
+      <c r="K19" s="1">
+        <v>821172707366</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="6"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3">
+        <v>180</v>
+      </c>
+      <c r="H20" s="8">
+        <v>6840</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1452248</v>
+      </c>
+      <c r="J20" s="80"/>
+      <c r="K20" s="1">
+        <v>881172798243</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="6"/>
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3">
+        <v>530</v>
+      </c>
+      <c r="H21" s="8">
+        <v>18313</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4225111</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="1">
+        <v>801173386957</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="6"/>
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="3">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3">
+        <v>111</v>
+      </c>
+      <c r="H22" s="8">
+        <v>4844.7</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1366576</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="1">
+        <v>791205232146</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6"/>
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="8">
+        <v>10855.2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2692882</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="1">
+        <v>891173387931</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="6"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="6"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="27">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="21">
         <f>SUM(G4:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="28">
+        <v>3774</v>
+      </c>
+      <c r="H34" s="22">
         <f>SUM(H4:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="29">
+        <v>129846.29999999999</v>
+      </c>
+      <c r="I34" s="22">
         <f>SUM(I4:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="23"/>
+        <v>30109871.02</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="H37" s="31"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1">
-      <c r="H38" s="31"/>
+      <c r="H38" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="29">
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -1423,8 +2601,631 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.75" thickBot="1">
+      <c r="A1" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+    </row>
+    <row r="2" spans="1:5" s="52" customFormat="1" ht="38.25" thickBot="1">
+      <c r="A2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="106">
+        <v>29</v>
+      </c>
+      <c r="D3" s="63">
+        <v>431</v>
+      </c>
+      <c r="E3" s="71">
+        <v>14922.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="64">
+        <v>405</v>
+      </c>
+      <c r="E4" s="72">
+        <v>13715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="47">
+        <f>D3+D4</f>
+        <v>836</v>
+      </c>
+      <c r="E5" s="46">
+        <f>E3+E4</f>
+        <v>28637.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="106">
+        <v>30</v>
+      </c>
+      <c r="D6" s="63">
+        <v>500</v>
+      </c>
+      <c r="E6" s="71">
+        <v>17900.599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="64">
+        <v>200</v>
+      </c>
+      <c r="E7" s="72">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A8" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="47">
+        <f>D6+D7</f>
+        <v>700</v>
+      </c>
+      <c r="E8" s="46">
+        <f>E6+E7</f>
+        <v>24939.599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="106">
+        <v>31</v>
+      </c>
+      <c r="D9" s="63">
+        <v>530</v>
+      </c>
+      <c r="E9" s="71">
+        <v>18313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="64">
+        <v>300</v>
+      </c>
+      <c r="E10" s="72">
+        <v>10855.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="47">
+        <f>D9+D10</f>
+        <v>830</v>
+      </c>
+      <c r="E11" s="46">
+        <f>E9+E10</f>
+        <v>29168.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="33">
+        <v>48</v>
+      </c>
+      <c r="D12" s="33">
+        <v>110</v>
+      </c>
+      <c r="E12" s="37">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="47">
+        <f>D12</f>
+        <v>110</v>
+      </c>
+      <c r="E13" s="46">
+        <f>E12</f>
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="33">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33">
+        <v>955</v>
+      </c>
+      <c r="E14" s="37">
+        <v>33472.199999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A15" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="47">
+        <f>D14</f>
+        <v>955</v>
+      </c>
+      <c r="E15" s="53">
+        <f>E14</f>
+        <v>33472.199999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="65">
+        <v>100</v>
+      </c>
+      <c r="E16" s="43">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="100"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="66">
+        <v>60</v>
+      </c>
+      <c r="E17" s="44">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="100"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="66">
+        <v>140</v>
+      </c>
+      <c r="E18" s="44">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="67">
+        <v>80</v>
+      </c>
+      <c r="E19" s="44">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="100"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="67">
+        <v>60</v>
+      </c>
+      <c r="E20" s="44">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="100"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="67">
+        <v>61</v>
+      </c>
+      <c r="E21" s="44">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="68">
+        <v>140</v>
+      </c>
+      <c r="E22" s="44">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="100"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="68">
+        <v>80</v>
+      </c>
+      <c r="E23" s="44">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="100"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="68">
+        <v>55</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="100"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="68">
+        <v>56</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="100"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="68">
+        <v>255</v>
+      </c>
+      <c r="E26" s="44">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="67">
+        <v>30</v>
+      </c>
+      <c r="E27" s="44">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A28" s="101"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="69">
+        <v>180</v>
+      </c>
+      <c r="E28" s="45">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A29" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="47">
+        <f>SUM(D16:D28)</f>
+        <v>1297</v>
+      </c>
+      <c r="E29" s="54">
+        <f>SUM(E16:E28)</f>
+        <v>42256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A30" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="61">
+        <v>30</v>
+      </c>
+      <c r="D30" s="61">
+        <v>111</v>
+      </c>
+      <c r="E30" s="73">
+        <v>4844.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A31" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="47">
+        <f>D30</f>
+        <v>111</v>
+      </c>
+      <c r="E31" s="46">
+        <f>E30</f>
+        <v>4844.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A32" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="61">
+        <v>36</v>
+      </c>
+      <c r="D32" s="70">
+        <v>20</v>
+      </c>
+      <c r="E32" s="74">
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A33" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="47">
+        <f>D32</f>
+        <v>20</v>
+      </c>
+      <c r="E33" s="46">
+        <f>E32</f>
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A34" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="61">
+        <v>41</v>
+      </c>
+      <c r="D34" s="33">
+        <v>40</v>
+      </c>
+      <c r="E34" s="37">
+        <v>909.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A35" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="47">
+        <f>D34</f>
+        <v>40</v>
+      </c>
+      <c r="E35" s="46">
+        <f>E34</f>
+        <v>909.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="61">
+        <v>50</v>
+      </c>
+      <c r="D36" s="33">
+        <v>40</v>
+      </c>
+      <c r="E36" s="37">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="47">
+        <f>D36</f>
+        <v>40</v>
+      </c>
+      <c r="E37" s="46">
+        <f>E36</f>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A38" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A39" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="47" t="str">
+        <f>D38</f>
+        <v>05</v>
+      </c>
+      <c r="E39" s="46">
+        <f>E38</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.75">
+      <c r="A41" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="39">
+        <f>D5+D8+D11+D13+D15+D29+D31+D33+D35+D37+D39</f>
+        <v>4944</v>
+      </c>
+      <c r="E41" s="40">
+        <f>E5+E8+E11+E13+E15+E29+E31+E33+E35+E37+E39</f>
+        <v>169986.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="B16:B28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ORIGENAL TEA RECEPIT-2021-22.xlsx
+++ b/ORIGENAL TEA RECEPIT-2021-22.xlsx
@@ -4,22 +4,38 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="April 21-22" sheetId="38" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="39" r:id="rId2"/>
+    <sheet name="APRIL 21-22" sheetId="43" r:id="rId1"/>
+    <sheet name="MAY 21-22 (2)" sheetId="41" r:id="rId2"/>
+    <sheet name="JUNE 21-22 (2)" sheetId="42" r:id="rId3"/>
+    <sheet name="JULY 21-22" sheetId="38" r:id="rId4"/>
+    <sheet name="AUGUST 21-22" sheetId="40" r:id="rId5"/>
+    <sheet name="SEPTEMBER 21-22" sheetId="44" r:id="rId6"/>
+    <sheet name="OCTOBER 21-22 " sheetId="46" r:id="rId7"/>
+    <sheet name="NOVEMBER 21-22" sheetId="47" r:id="rId8"/>
+    <sheet name="DECEMBER 21-22" sheetId="48" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="39" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 21-22'!$A$3:$M$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$2:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'APRIL 21-22'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'AUGUST 21-22'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'DECEMBER 21-22'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'JULY 21-22'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'JUNE 21-22 (2)'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MAY 21-22 (2)'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NOVEMBER 21-22'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'OCTOBER 21-22 '!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SEPTEMBER 21-22'!$A$3:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet1!$A$2:$E$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="262">
   <si>
     <t xml:space="preserve">NAME OF THE PARTEY </t>
   </si>
@@ -310,13 +326,508 @@
   </si>
   <si>
     <t>Sale No. Wise as on 28.08.2021-22</t>
+  </si>
+  <si>
+    <t>20.10.2021</t>
+  </si>
+  <si>
+    <t>08.10.2021</t>
+  </si>
+  <si>
+    <t>GST/049/21-22</t>
+  </si>
+  <si>
+    <t>NL-01-AB-6606</t>
+  </si>
+  <si>
+    <t>25.10.2021</t>
+  </si>
+  <si>
+    <t>18.10.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/014</t>
+  </si>
+  <si>
+    <t>UP-14-GT-3005</t>
+  </si>
+  <si>
+    <t>BTI/339/21-22</t>
+  </si>
+  <si>
+    <t>MP-09-HH-5748</t>
+  </si>
+  <si>
+    <t>NS/0284/2021-22</t>
+  </si>
+  <si>
+    <t>NYASYLEE TEA ESTATE PVT LTD.</t>
+  </si>
+  <si>
+    <t>NGRKT</t>
+  </si>
+  <si>
+    <t>30.08.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/008</t>
+  </si>
+  <si>
+    <t>MP-09HH-5748</t>
+  </si>
+  <si>
+    <t>02.09.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/007</t>
+  </si>
+  <si>
+    <t>PATAKA INDUSTRIES PVT. LTD.</t>
+  </si>
+  <si>
+    <t>HR-55-N-8115</t>
+  </si>
+  <si>
+    <t>06.09.2021</t>
+  </si>
+  <si>
+    <t>14.08.2021</t>
+  </si>
+  <si>
+    <t>GST/040/21-22</t>
+  </si>
+  <si>
+    <t>UDDHAV TEA PVT. LTD.</t>
+  </si>
+  <si>
+    <t>HR-55-R-3417</t>
+  </si>
+  <si>
+    <t>11.09.2021</t>
+  </si>
+  <si>
+    <t>22.08.2021</t>
+  </si>
+  <si>
+    <t>GST/046/21-22</t>
+  </si>
+  <si>
+    <t>26.09.2021</t>
+  </si>
+  <si>
+    <t>22.09.2021</t>
+  </si>
+  <si>
+    <t>TEA/21-22/020</t>
+  </si>
+  <si>
+    <t>NL-01-AD-8734</t>
+  </si>
+  <si>
+    <t>29.09.2021</t>
+  </si>
+  <si>
+    <t>20.09.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/009</t>
+  </si>
+  <si>
+    <t>UP-17-AT-1848</t>
+  </si>
+  <si>
+    <t>04.09.2021</t>
+  </si>
+  <si>
+    <t>GST/060/21-22</t>
+  </si>
+  <si>
+    <t>05.10.2021</t>
+  </si>
+  <si>
+    <t>27.09.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/010</t>
+  </si>
+  <si>
+    <t>UP-14-GT-7271</t>
+  </si>
+  <si>
+    <t>06.10.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/011</t>
+  </si>
+  <si>
+    <t>UP-73-A-5149</t>
+  </si>
+  <si>
+    <t>12.10.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/012</t>
+  </si>
+  <si>
+    <t>HR-55-AG-1586</t>
+  </si>
+  <si>
+    <t>13.10.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/013</t>
+  </si>
+  <si>
+    <t>UP-14-JT-9408</t>
+  </si>
+  <si>
+    <t>26.10.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/015</t>
+  </si>
+  <si>
+    <t>HR-69-D-6219</t>
+  </si>
+  <si>
+    <t>ORIGANAL TEA RECEIVED FOR THE MONTH OF SEPTEMBER 2021-22</t>
+  </si>
+  <si>
+    <t>ORIGANAL TEA RECEIVED FOR THE MONTH OF OCTOBER 2021-22</t>
+  </si>
+  <si>
+    <t>13.09.2021</t>
+  </si>
+  <si>
+    <t>SY/0313/2021-22</t>
+  </si>
+  <si>
+    <t>SYLEE TEA ESTATE (P) LTD.</t>
+  </si>
+  <si>
+    <t>NL-01-AE-1041</t>
+  </si>
+  <si>
+    <t>DTE/327/21-22</t>
+  </si>
+  <si>
+    <t>THE BENGAL DOOARS NATIONAL TEA CO. LTD</t>
+  </si>
+  <si>
+    <t>20.08.2021</t>
+  </si>
+  <si>
+    <t>BTI/245/21.22</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>BTI/335/21-22</t>
+  </si>
+  <si>
+    <t>16.10.2021</t>
+  </si>
+  <si>
+    <t>25.09.2021</t>
+  </si>
+  <si>
+    <t>GST/054/21-22</t>
+  </si>
+  <si>
+    <t>VINAYAK ENTERPRISES</t>
+  </si>
+  <si>
+    <t>GST/055/21-22</t>
+  </si>
+  <si>
+    <t>UP-17-T-9835</t>
+  </si>
+  <si>
+    <t>18.09.2021</t>
+  </si>
+  <si>
+    <t>GST/073/21-22</t>
+  </si>
+  <si>
+    <t>DL-01-GC-4535</t>
+  </si>
+  <si>
+    <t>01.11.2021</t>
+  </si>
+  <si>
+    <t>09.10.2021</t>
+  </si>
+  <si>
+    <t>GST/071/21-22</t>
+  </si>
+  <si>
+    <t>HR-55-K-8238</t>
+  </si>
+  <si>
+    <t>02.11.2021</t>
+  </si>
+  <si>
+    <t>02.10.2021</t>
+  </si>
+  <si>
+    <t>GST/064/21-22</t>
+  </si>
+  <si>
+    <t>HR-38-AA-3878</t>
+  </si>
+  <si>
+    <t>06.11.2021</t>
+  </si>
+  <si>
+    <t>GST/072/21-22</t>
+  </si>
+  <si>
+    <t>HR-55-AB-2798</t>
+  </si>
+  <si>
+    <t>08.11.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-222/017</t>
+  </si>
+  <si>
+    <t>29.10.2021</t>
+  </si>
+  <si>
+    <t>DTE/455/21-22</t>
+  </si>
+  <si>
+    <t>THE BENGAL DOOARS NATIONAL TEA CO. LTD.</t>
+  </si>
+  <si>
+    <t>SY/0468/2021-22</t>
+  </si>
+  <si>
+    <t>23.10.2021</t>
+  </si>
+  <si>
+    <t>BTI/361/21-22</t>
+  </si>
+  <si>
+    <t>27.10.2021</t>
+  </si>
+  <si>
+    <t>SINV-462/21</t>
+  </si>
+  <si>
+    <t>CHENGMARI TEA CO. LTD.</t>
+  </si>
+  <si>
+    <t>HR-55-AG-5937</t>
+  </si>
+  <si>
+    <t>09.11.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/016</t>
+  </si>
+  <si>
+    <t>HR-38-S-1465</t>
+  </si>
+  <si>
+    <t>30.10.2021</t>
+  </si>
+  <si>
+    <t>JAFI000153</t>
+  </si>
+  <si>
+    <t>JAY SHRI TEA &amp; INDUSTRIES LTD</t>
+  </si>
+  <si>
+    <t>D.K STATEMENT -2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>PACKING MATEREILS STATEMENT-2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>ORIGENAL TEA INPUT &amp; BLEND OUTPUT SYESTEM- 2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>ORIGENAL TEA RECEPIT-2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>PMT RECEPIT-2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>BLENDED TEA STOCK REGISTER 2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>SALE BILL REPORT 2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>13.11.2021</t>
+  </si>
+  <si>
+    <t>GST/062/21-22</t>
+  </si>
+  <si>
+    <t>CENTRAL TEA COMPANY</t>
+  </si>
+  <si>
+    <t>UP-17-AT-7154</t>
+  </si>
+  <si>
+    <t>15.11.2021</t>
+  </si>
+  <si>
+    <t>GST/063/21-22</t>
+  </si>
+  <si>
+    <t>16.11.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/018</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/19</t>
+  </si>
+  <si>
+    <t>DTE/479/21-22</t>
+  </si>
+  <si>
+    <t>UP-14-GT-7270</t>
+  </si>
+  <si>
+    <t>20.11.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/022</t>
+  </si>
+  <si>
+    <t>22.11.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/021</t>
+  </si>
+  <si>
+    <t>LTE/600/21-22</t>
+  </si>
+  <si>
+    <t>GIRIRAJ PLANTATIONS PVT. LTD.</t>
+  </si>
+  <si>
+    <t>23.11.2021</t>
+  </si>
+  <si>
+    <t>GST/075/21-22</t>
+  </si>
+  <si>
+    <t>UP-17-AT-6978</t>
+  </si>
+  <si>
+    <t>24/11.2021</t>
+  </si>
+  <si>
+    <t>31.10.2021</t>
+  </si>
+  <si>
+    <t>TTPL/064/K/21-22</t>
+  </si>
+  <si>
+    <t>TEWARI TEA TRADING PVT LTD</t>
+  </si>
+  <si>
+    <t>HR-61-D-0671</t>
+  </si>
+  <si>
+    <t>26.11.2021</t>
+  </si>
+  <si>
+    <t>05.11.2021</t>
+  </si>
+  <si>
+    <t>GDT/091/21-22</t>
+  </si>
+  <si>
+    <t>8KG</t>
+  </si>
+  <si>
+    <t>27.11.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/020/21-22</t>
+  </si>
+  <si>
+    <t>19.11.2021</t>
+  </si>
+  <si>
+    <t>BTI/411/21-22</t>
+  </si>
+  <si>
+    <t>ORIGANAL TEA RECEIVED FOR THE MONTH OF NOVEMVER 2021-22</t>
+  </si>
+  <si>
+    <t>ORIGANAL TEA RECEIVED FOR THE MONTH OF DECEMBER 2021-22</t>
+  </si>
+  <si>
+    <t>01.12.2021</t>
+  </si>
+  <si>
+    <t>24.11.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/024/21-22</t>
+  </si>
+  <si>
+    <t>02.12.2021</t>
+  </si>
+  <si>
+    <t>GST/092/21-22</t>
+  </si>
+  <si>
+    <t>RJ-14-GL-8475</t>
+  </si>
+  <si>
+    <t>29.11.2021</t>
+  </si>
+  <si>
+    <t>TTC/107/K/21-22</t>
+  </si>
+  <si>
+    <t>TTC/098/K/21-22</t>
+  </si>
+  <si>
+    <t>TEWARI TEA CORPORATION</t>
+  </si>
+  <si>
+    <t>NL-01-Q-1974</t>
+  </si>
+  <si>
+    <t>04.12.2021</t>
+  </si>
+  <si>
+    <t>SLG/T/026/21-22</t>
+  </si>
+  <si>
+    <t>UP-14-GT-7010</t>
+  </si>
+  <si>
+    <t>SLG/028/21-22</t>
+  </si>
+  <si>
+    <t>HR-55-Q-1825</t>
+  </si>
+  <si>
+    <t>06.12.2021</t>
+  </si>
+  <si>
+    <t>GST/083/21-22</t>
+  </si>
+  <si>
+    <t>UP-17-T-8115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,8 +930,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +956,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,10 +1526,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,260 +1604,295 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1614,17 +2185,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" activeCellId="2" sqref="H4:H6 H9:H16 H19:H20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
@@ -1639,770 +2213,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="87" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="89"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="24">
-        <v>100</v>
-      </c>
-      <c r="H4" s="26">
-        <v>3800</v>
-      </c>
-      <c r="I4" s="26">
-        <v>895436</v>
-      </c>
-      <c r="J4" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="27">
-        <v>801168568474</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="28"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="79"/>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
-        <v>60</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2280</v>
-      </c>
-      <c r="I5" s="8">
-        <v>577744.02</v>
-      </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="1">
-        <v>891168758618</v>
-      </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="12"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="80"/>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3">
-        <v>140</v>
-      </c>
-      <c r="H6" s="8">
-        <v>5320</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1204342</v>
-      </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="1">
-        <v>841168809656</v>
-      </c>
-      <c r="L6" s="83"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3">
-        <v>431</v>
-      </c>
-      <c r="H7" s="8">
-        <v>14922.8</v>
-      </c>
-      <c r="I7" s="8">
-        <v>3714166</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1">
-        <v>871170884541</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3">
-        <v>405</v>
-      </c>
-      <c r="H8" s="8">
-        <v>13715</v>
-      </c>
-      <c r="I8" s="8">
-        <v>3196678</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1">
-        <v>891170883656</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1">
-      <c r="A9" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3">
-        <v>80</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3040</v>
-      </c>
-      <c r="I9" s="8">
-        <v>594350</v>
-      </c>
-      <c r="J9" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1">
-        <v>871171135828</v>
-      </c>
-      <c r="L9" s="81" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="79"/>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="3">
-        <v>60</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1560</v>
-      </c>
-      <c r="I10" s="8">
-        <v>321048</v>
-      </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="1">
-        <v>871171135828</v>
-      </c>
-      <c r="L10" s="82"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="80"/>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="3">
-        <v>61</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2135</v>
-      </c>
-      <c r="I11" s="8">
-        <v>402288</v>
-      </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="1">
-        <v>881171081582</v>
-      </c>
-      <c r="L11" s="83"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3">
-        <v>140</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3780</v>
-      </c>
-      <c r="I12" s="8">
-        <v>836268</v>
-      </c>
-      <c r="J12" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="1">
-        <v>811172020749</v>
-      </c>
-      <c r="L12" s="81" t="s">
-        <v>49</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="76"/>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="3">
-        <v>80</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2400</v>
-      </c>
-      <c r="I13" s="8">
-        <v>519234</v>
-      </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="1">
-        <v>841171151148</v>
-      </c>
-      <c r="L13" s="82"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="76"/>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="3">
-        <v>55</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1650</v>
-      </c>
-      <c r="I14" s="8">
-        <v>352536</v>
-      </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="1">
-        <v>831171155345</v>
-      </c>
-      <c r="L14" s="82"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="76"/>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="3">
-        <v>56</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1456</v>
-      </c>
-      <c r="I15" s="8">
-        <v>327629</v>
-      </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="1">
-        <v>871171629813</v>
-      </c>
-      <c r="L15" s="82"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="77"/>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="3">
-        <v>255</v>
-      </c>
-      <c r="H16" s="8">
-        <v>6855</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1513993</v>
-      </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="1">
-        <v>821171986036</v>
-      </c>
-      <c r="L16" s="83"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="8">
-        <v>17900.599999999999</v>
-      </c>
-      <c r="I17" s="8">
-        <v>4069066</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="1">
-        <v>811172136918</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
-      <c r="H18" s="8">
-        <v>7039</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1604280</v>
-      </c>
-      <c r="J18" s="78" t="s">
-        <v>69</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="91"/>
-      <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1140</v>
-      </c>
-      <c r="I19" s="8">
-        <v>243996</v>
-      </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="1">
-        <v>821172707366</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="92"/>
-      <c r="B20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="3">
-        <v>180</v>
-      </c>
-      <c r="H20" s="8">
-        <v>6840</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1452248</v>
-      </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="1">
-        <v>881172798243</v>
-      </c>
-      <c r="L20" s="10"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="3">
-        <v>31</v>
-      </c>
-      <c r="G21" s="3">
-        <v>530</v>
-      </c>
-      <c r="H21" s="8">
-        <v>18313</v>
-      </c>
-      <c r="I21" s="8">
-        <v>4225111</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="1">
-        <v>801173386957</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="3">
-        <v>30</v>
-      </c>
-      <c r="G22" s="3">
-        <v>111</v>
-      </c>
-      <c r="H22" s="8">
-        <v>4844.7</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1366576</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="1">
-        <v>791205232146</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3">
-        <v>31</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
-      <c r="H23" s="8">
-        <v>10855.2</v>
-      </c>
-      <c r="I23" s="8">
-        <v>2692882</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="1">
-        <v>891173387931</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13">
@@ -2556,7 +2736,7 @@
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="15"/>
@@ -2564,17 +2744,17 @@
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="21">
+      <c r="G34" s="75">
         <f>SUM(G4:G33)</f>
-        <v>3774</v>
+        <v>0</v>
       </c>
       <c r="H34" s="22">
         <f>SUM(H4:H33)</f>
-        <v>129846.29999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22">
         <f>SUM(I4:I33)</f>
-        <v>30109871.02</v>
+        <v>0</v>
       </c>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -2588,9 +2768,11 @@
       <c r="H38" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A18:A20"/>
+  <mergeCells count="14">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2601,610 +2783,593 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" thickBot="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-    </row>
-    <row r="2" spans="1:5" s="52" customFormat="1" ht="38.25" thickBot="1">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+    </row>
+    <row r="2" spans="1:5" s="51" customFormat="1" ht="38.25" thickBot="1">
+      <c r="A2" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="118">
         <v>29</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="62">
         <v>431</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="70">
         <v>14922.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="64">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="63">
         <v>405</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="71">
         <v>13715</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="47">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="46">
         <f>D3+D4</f>
         <v>836</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <f>E3+E4</f>
         <v>28637.8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="118">
         <v>30</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="62">
         <v>500</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="70">
         <v>17900.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="64">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="63">
         <v>200</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="71">
         <v>7039</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="47">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="46">
         <f>D6+D7</f>
         <v>700</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <f>E6+E7</f>
         <v>24939.599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="118">
         <v>31</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="62">
         <v>530</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>18313</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="64">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="63">
         <v>300</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="71">
         <v>10855.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="47">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="46">
         <f>D9+D10</f>
         <v>830</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <f>E9+E10</f>
         <v>29168.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>48</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="32">
         <v>110</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>4017</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="47">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="46">
         <f>D12</f>
         <v>110</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <f>E12</f>
         <v>4017</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>49</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>955</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>33472.199999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="47">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="46">
         <f>D14</f>
         <v>955</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="52">
         <f>E14</f>
         <v>33472.199999999997</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="64">
         <v>100</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <v>3800</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="100"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="66">
+      <c r="A17" s="112"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="65">
         <v>60</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <v>2280</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="100"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="66">
+      <c r="A18" s="112"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="65">
         <v>140</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>5320</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="67">
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="66">
         <v>80</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <v>3040</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="100"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="67">
+      <c r="A20" s="112"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="66">
         <v>60</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <v>1560</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="67">
+      <c r="A21" s="112"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="66">
         <v>61</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <v>2135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="68">
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="67">
         <v>140</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <v>3780</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="100"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="68">
+      <c r="A23" s="112"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="67">
         <v>80</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <v>2400</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="100"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="68">
+      <c r="A24" s="112"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="67">
         <v>55</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <v>1650</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="100"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="68">
+      <c r="A25" s="112"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="67">
         <v>56</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <v>1456</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="100"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="68">
+      <c r="A26" s="112"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="67">
         <v>255</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="43">
         <v>6855</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="67">
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="66">
         <v>30</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="43">
         <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A28" s="101"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="69">
+      <c r="A28" s="113"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="68">
         <v>180</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="44">
         <v>6840</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="47">
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="46">
         <f>SUM(D16:D28)</f>
         <v>1297</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="53">
         <f>SUM(E16:E28)</f>
         <v>42256</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="60">
         <v>30</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="60">
         <v>111</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="72">
         <v>4844.7</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="47">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="46">
         <f>D30</f>
         <v>111</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="45">
         <f>E30</f>
         <v>4844.7</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="60">
         <v>36</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="69">
         <v>20</v>
       </c>
-      <c r="E32" s="74">
+      <c r="E32" s="73">
         <v>397.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="47">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="46">
         <f>D32</f>
         <v>20</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <f>E32</f>
         <v>397.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="60">
         <v>41</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="32">
         <v>40</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>909.4</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="47">
+      <c r="B35" s="54"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="46">
         <f>D34</f>
         <v>40</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="45">
         <f>E34</f>
         <v>909.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="60">
         <v>50</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="32">
         <v>40</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="36">
         <v>1224</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="47">
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="46">
         <f>D36</f>
         <v>40</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="45">
         <f>E36</f>
         <v>1224</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="47" t="str">
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="46" t="str">
         <f>D38</f>
         <v>05</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="45">
         <f>E38</f>
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="38">
         <f>D5+D8+D11+D13+D15+D29+D31+D33+D35+D37+D39</f>
         <v>4944</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="39">
         <f>E5+E8+E11+E13+E15+E29+E31+E33+E35+E37+E39</f>
         <v>169986.4</v>
       </c>
@@ -3228,4 +3393,6599 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="75">
+        <f>SUM(G4:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="75">
+        <f>SUM(G4:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="21">
+        <f>SUM(G4:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="74">
+        <v>100</v>
+      </c>
+      <c r="H4" s="25">
+        <v>3800</v>
+      </c>
+      <c r="I4" s="25">
+        <v>895436</v>
+      </c>
+      <c r="J4" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="26">
+        <v>801168568474</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="103"/>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3">
+        <v>60</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2280</v>
+      </c>
+      <c r="I5" s="8">
+        <v>577744.02</v>
+      </c>
+      <c r="J5" s="103"/>
+      <c r="K5" s="1">
+        <v>891168758618</v>
+      </c>
+      <c r="L5" s="101"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="99"/>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>140</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5320</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1204342</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="1">
+        <v>841168809656</v>
+      </c>
+      <c r="L6" s="102"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3">
+        <v>431</v>
+      </c>
+      <c r="H7" s="8">
+        <v>14922.8</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3714166</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1">
+        <v>871170884541</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3">
+        <v>405</v>
+      </c>
+      <c r="H8" s="8">
+        <v>13715</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3196678</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1">
+        <v>891170883656</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1">
+      <c r="A9" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3040</v>
+      </c>
+      <c r="I9" s="8">
+        <v>594350</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1">
+        <v>871171135828</v>
+      </c>
+      <c r="L9" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="103"/>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1560</v>
+      </c>
+      <c r="I10" s="8">
+        <v>321048</v>
+      </c>
+      <c r="J10" s="103"/>
+      <c r="K10" s="1">
+        <v>871171135828</v>
+      </c>
+      <c r="L10" s="101"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="99"/>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="3">
+        <v>61</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2135</v>
+      </c>
+      <c r="I11" s="8">
+        <v>402288</v>
+      </c>
+      <c r="J11" s="99"/>
+      <c r="K11" s="1">
+        <v>881171081582</v>
+      </c>
+      <c r="L11" s="102"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3">
+        <v>140</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3780</v>
+      </c>
+      <c r="I12" s="8">
+        <v>836268</v>
+      </c>
+      <c r="J12" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1">
+        <v>811172020749</v>
+      </c>
+      <c r="L12" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="106"/>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="3">
+        <v>80</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I13" s="8">
+        <v>519234</v>
+      </c>
+      <c r="J13" s="103"/>
+      <c r="K13" s="1">
+        <v>841171151148</v>
+      </c>
+      <c r="L13" s="101"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="106"/>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="3">
+        <v>55</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1650</v>
+      </c>
+      <c r="I14" s="8">
+        <v>352536</v>
+      </c>
+      <c r="J14" s="103"/>
+      <c r="K14" s="1">
+        <v>831171155345</v>
+      </c>
+      <c r="L14" s="101"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="106"/>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="3">
+        <v>56</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1456</v>
+      </c>
+      <c r="I15" s="8">
+        <v>327629</v>
+      </c>
+      <c r="J15" s="103"/>
+      <c r="K15" s="1">
+        <v>871171629813</v>
+      </c>
+      <c r="L15" s="101"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="107"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="3">
+        <v>255</v>
+      </c>
+      <c r="H16" s="8">
+        <v>6855</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1513993</v>
+      </c>
+      <c r="J16" s="99"/>
+      <c r="K16" s="1">
+        <v>821171986036</v>
+      </c>
+      <c r="L16" s="102"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="8">
+        <v>17900.599999999999</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4069066</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="1">
+        <v>811172136918</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="77">
+        <v>7039</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1604280</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1">
+        <v>881172137602</v>
+      </c>
+      <c r="L18" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="104"/>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="77">
+        <v>1140</v>
+      </c>
+      <c r="I19" s="8">
+        <v>243996</v>
+      </c>
+      <c r="J19" s="103"/>
+      <c r="K19" s="76">
+        <v>821172707366</v>
+      </c>
+      <c r="L19" s="101"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="97"/>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3">
+        <v>180</v>
+      </c>
+      <c r="H20" s="77">
+        <v>6840</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1452248</v>
+      </c>
+      <c r="J20" s="99"/>
+      <c r="K20" s="76">
+        <v>881172798243</v>
+      </c>
+      <c r="L20" s="102"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3">
+        <v>530</v>
+      </c>
+      <c r="H21" s="8">
+        <v>18313</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4225111</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="1">
+        <v>801173386957</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="3">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3">
+        <v>111</v>
+      </c>
+      <c r="H22" s="8">
+        <v>4844.7</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1366576</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="76">
+        <v>791205232146</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="8">
+        <v>10855.2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2692882</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="1">
+        <v>891173387931</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3">
+        <v>485</v>
+      </c>
+      <c r="H24" s="78">
+        <v>15800.2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>3645533</v>
+      </c>
+      <c r="J24" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="1">
+        <v>831174684057</v>
+      </c>
+      <c r="L24" s="98">
+        <v>11</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="97"/>
+      <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="3">
+        <v>60</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1620</v>
+      </c>
+      <c r="I25" s="8">
+        <v>325061.09999999998</v>
+      </c>
+      <c r="J25" s="99"/>
+      <c r="K25" s="1">
+        <v>881174092750</v>
+      </c>
+      <c r="L25" s="99"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="75">
+        <f>SUM(G4:G33)</f>
+        <v>4319</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>147266.5</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>34080465.119999997</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3">
+        <v>507</v>
+      </c>
+      <c r="H4" s="8">
+        <v>17782.400000000001</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4165429</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="1">
+        <v>841174682690</v>
+      </c>
+      <c r="L4" s="3">
+        <v>12</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3">
+        <v>208</v>
+      </c>
+      <c r="H5" s="8">
+        <v>7181.3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1432548</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="1">
+        <v>721207889291</v>
+      </c>
+      <c r="L5" s="3">
+        <v>13</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="3">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3">
+        <v>150</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4896.1000000000004</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1220506</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="1">
+        <v>771208546569</v>
+      </c>
+      <c r="L6" s="3">
+        <v>14</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1">
+      <c r="A7" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>80</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I7" s="8">
+        <v>491451</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="1">
+        <v>801172850747</v>
+      </c>
+      <c r="L7" s="98">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1">
+      <c r="A8" s="97"/>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>155</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4030</v>
+      </c>
+      <c r="I8" s="8">
+        <v>781083</v>
+      </c>
+      <c r="J8" s="99"/>
+      <c r="K8" s="1">
+        <v>761209661842</v>
+      </c>
+      <c r="L8" s="99"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>255</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8671.7999999999993</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1914408.25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="1">
+        <v>891179955026</v>
+      </c>
+      <c r="L9" s="3">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3">
+        <v>573</v>
+      </c>
+      <c r="H10" s="8">
+        <v>19479.2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3999411</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="1">
+        <v>811179554704</v>
+      </c>
+      <c r="L10" s="3">
+        <v>17</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="3">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3">
+        <v>160</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5593.4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1259969</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="1">
+        <v>771212289395</v>
+      </c>
+      <c r="L11" s="3">
+        <v>18</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="75">
+        <f>SUM(G4:G33)</f>
+        <v>2088</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>70034.2</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>15264805.25</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3">
+        <v>571</v>
+      </c>
+      <c r="H4" s="8">
+        <v>19958.400000000001</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4332090</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="1">
+        <v>851180894550</v>
+      </c>
+      <c r="L4" s="3">
+        <v>19</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3">
+        <v>403</v>
+      </c>
+      <c r="H5" s="8">
+        <v>14011.5</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3290229</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="1">
+        <v>751214000420</v>
+      </c>
+      <c r="L5" s="3">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3">
+        <v>355</v>
+      </c>
+      <c r="H6" s="8">
+        <v>13102.4</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3081547</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="1">
+        <v>861180895639</v>
+      </c>
+      <c r="L6" s="3">
+        <v>21</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="14" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3">
+        <v>549</v>
+      </c>
+      <c r="H7" s="8">
+        <v>19639.2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4516034</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="1">
+        <v>871182491933</v>
+      </c>
+      <c r="L7" s="3">
+        <v>22</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1">
+      <c r="A8" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>545</v>
+      </c>
+      <c r="H8" s="8">
+        <v>19762</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4516052</v>
+      </c>
+      <c r="J8" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="1">
+        <v>881182493028</v>
+      </c>
+      <c r="L8" s="98">
+        <v>23</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1">
+      <c r="A9" s="97"/>
+      <c r="B9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>66</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2310</v>
+      </c>
+      <c r="I9" s="8">
+        <v>509972.4</v>
+      </c>
+      <c r="J9" s="99"/>
+      <c r="K9" s="1">
+        <v>811183220789</v>
+      </c>
+      <c r="L9" s="99"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="98">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3">
+        <v>473</v>
+      </c>
+      <c r="H10" s="8">
+        <v>15896.1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3584915</v>
+      </c>
+      <c r="J10" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="1">
+        <v>781216134247</v>
+      </c>
+      <c r="L10" s="98">
+        <v>24</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="97"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="3">
+        <v>60</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1408</v>
+      </c>
+      <c r="I11" s="8">
+        <v>293198</v>
+      </c>
+      <c r="J11" s="99"/>
+      <c r="K11" s="1">
+        <v>701216135316</v>
+      </c>
+      <c r="L11" s="99"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="3">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3">
+        <v>309</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6290.5</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1784397</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1">
+        <v>721217189110</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3">
+        <v>90</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3150</v>
+      </c>
+      <c r="I15" s="8">
+        <v>723901.5</v>
+      </c>
+      <c r="J15" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="98">
+        <v>7729654428</v>
+      </c>
+      <c r="L15" s="98">
+        <v>26</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="97"/>
+      <c r="B16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3">
+        <v>80</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I16" s="8">
+        <v>438972</v>
+      </c>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3">
+        <v>577</v>
+      </c>
+      <c r="H17" s="8">
+        <v>20646.8</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4630231</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="3">
+        <v>861184440211</v>
+      </c>
+      <c r="L17" s="3">
+        <v>27</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>39</v>
+      </c>
+      <c r="G18" s="3">
+        <v>590</v>
+      </c>
+      <c r="H18" s="8">
+        <v>20685</v>
+      </c>
+      <c r="I18" s="8">
+        <v>4573205</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="1">
+        <v>841184441221</v>
+      </c>
+      <c r="L18" s="3">
+        <v>28</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="75">
+        <f>SUM(G4:G33)</f>
+        <v>4668</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>159259.9</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>36274743.899999999</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:20" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3">
+        <v>466</v>
+      </c>
+      <c r="H4" s="8">
+        <v>16170.4</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3349430</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="1">
+        <v>701220014689</v>
+      </c>
+      <c r="L4" s="3">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="3">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3">
+        <v>200</v>
+      </c>
+      <c r="H5" s="8">
+        <v>7209.3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1430394</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="1">
+        <v>771220298789</v>
+      </c>
+      <c r="L5" s="3">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="3">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3">
+        <v>175</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5760.6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1078592</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="1">
+        <v>751220615078</v>
+      </c>
+      <c r="L6" s="3">
+        <v>31</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" s="14" customFormat="1">
+      <c r="A7" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3">
+        <v>127</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4105</v>
+      </c>
+      <c r="I7" s="8">
+        <v>758863</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="108">
+        <v>7129946385</v>
+      </c>
+      <c r="L7" s="98">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" s="14" customFormat="1">
+      <c r="A8" s="97"/>
+      <c r="B8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="99"/>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3">
+        <v>250</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6500</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1287402.48</v>
+      </c>
+      <c r="J8" s="99"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="14" customFormat="1">
+      <c r="A9" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I9" s="8">
+        <v>448233</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="108">
+        <v>7629863162</v>
+      </c>
+      <c r="L9" s="98">
+        <v>33</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="104"/>
+      <c r="B10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="3">
+        <v>70</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2450</v>
+      </c>
+      <c r="I10" s="8">
+        <v>520416.75</v>
+      </c>
+      <c r="J10" s="103"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="97"/>
+      <c r="B11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="3">
+        <v>160</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5600</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1333769</v>
+      </c>
+      <c r="J11" s="99"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3">
+        <v>614</v>
+      </c>
+      <c r="H12" s="8">
+        <v>20071</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4011751</v>
+      </c>
+      <c r="J12" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="108">
+        <v>7529927270</v>
+      </c>
+      <c r="L12" s="98">
+        <v>34</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="97"/>
+      <c r="B13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3">
+        <v>70</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2450</v>
+      </c>
+      <c r="I13" s="8">
+        <v>44118.76</v>
+      </c>
+      <c r="J13" s="99"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="98">
+        <v>42</v>
+      </c>
+      <c r="G14" s="3">
+        <v>361</v>
+      </c>
+      <c r="H14" s="8">
+        <v>16111.6</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3318444</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="1">
+        <v>711221739106</v>
+      </c>
+      <c r="L14" s="3">
+        <v>35</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="3">
+        <v>280</v>
+      </c>
+      <c r="H15" s="8">
+        <v>9392.7000000000007</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2033016</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="1">
+        <v>791221701521</v>
+      </c>
+      <c r="L15" s="3">
+        <v>36</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="98">
+        <v>43</v>
+      </c>
+      <c r="G16" s="3">
+        <v>504</v>
+      </c>
+      <c r="H16" s="8">
+        <v>15748.6</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3260740</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="1">
+        <v>851188398153</v>
+      </c>
+      <c r="L16" s="3">
+        <v>37</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="3">
+        <v>575</v>
+      </c>
+      <c r="H17" s="8">
+        <v>20136.400000000001</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4291862</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="1">
+        <v>861188398862</v>
+      </c>
+      <c r="L17" s="3">
+        <v>38</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3">
+        <v>160</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4160</v>
+      </c>
+      <c r="I18" s="8">
+        <v>864689.28</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" s="108">
+        <v>7730149616</v>
+      </c>
+      <c r="L18" s="98">
+        <v>39</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="97"/>
+      <c r="B19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3">
+        <v>307</v>
+      </c>
+      <c r="H19" s="8">
+        <v>10131.4</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2161955</v>
+      </c>
+      <c r="J19" s="99"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3">
+        <v>547</v>
+      </c>
+      <c r="H20" s="8">
+        <v>19982.8</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5201477</v>
+      </c>
+      <c r="J20" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="108">
+        <v>7730162428</v>
+      </c>
+      <c r="L20" s="98">
+        <v>40</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="97"/>
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3">
+        <v>121</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3551</v>
+      </c>
+      <c r="I21" s="8">
+        <v>739393</v>
+      </c>
+      <c r="J21" s="99"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43</v>
+      </c>
+      <c r="G22" s="3">
+        <v>445</v>
+      </c>
+      <c r="H22" s="8">
+        <v>15783.6</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3142107</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="1">
+        <v>791223509895</v>
+      </c>
+      <c r="L22" s="3">
+        <v>41</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44</v>
+      </c>
+      <c r="G23" s="3">
+        <v>150</v>
+      </c>
+      <c r="H23" s="8">
+        <v>4794.2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1305819</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" s="1">
+        <v>761224185228</v>
+      </c>
+      <c r="L23" s="3">
+        <v>42</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44</v>
+      </c>
+      <c r="G24" s="3">
+        <v>486</v>
+      </c>
+      <c r="H24" s="8">
+        <v>16205.8</v>
+      </c>
+      <c r="I24" s="8">
+        <v>3634871</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="1">
+        <v>741224247692</v>
+      </c>
+      <c r="L24" s="3">
+        <v>43</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44</v>
+      </c>
+      <c r="G25" s="3">
+        <v>602</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20192.2</v>
+      </c>
+      <c r="I25" s="8">
+        <v>4722067</v>
+      </c>
+      <c r="J25" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="108">
+        <v>7130258419</v>
+      </c>
+      <c r="L25" s="98">
+        <v>44</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="3">
+        <v>105</v>
+      </c>
+      <c r="H26" s="8">
+        <v>3675</v>
+      </c>
+      <c r="I26" s="8">
+        <v>883267.88</v>
+      </c>
+      <c r="J26" s="99"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="75">
+        <f>SUM(G4:G33)</f>
+        <v>6855</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>232581.6</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>49822678.150000006</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O9" r:id="rId1"/>
+    <hyperlink ref="O11" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O12" r:id="rId4"/>
+    <hyperlink ref="O13" r:id="rId5"/>
+    <hyperlink ref="O14" r:id="rId6"/>
+    <hyperlink ref="O15" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16.5" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:20" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3">
+        <v>560</v>
+      </c>
+      <c r="H4" s="8">
+        <v>19862.8</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4714694</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="1">
+        <v>871191426418</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3">
+        <v>180</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4707.3999999999996</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1328892</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="1">
+        <v>781225593806</v>
+      </c>
+      <c r="L5" s="98">
+        <v>46</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="97"/>
+      <c r="B6" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="3">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3">
+        <v>290</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8153.8</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2301661</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="1">
+        <v>701225593464</v>
+      </c>
+      <c r="L6" s="99"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" s="14" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3">
+        <v>201</v>
+      </c>
+      <c r="H7" s="8">
+        <v>6818.8</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1586180</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="1">
+        <v>741225070419</v>
+      </c>
+      <c r="L7" s="3">
+        <v>47</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" s="14" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3">
+        <v>559</v>
+      </c>
+      <c r="H8" s="8">
+        <v>20123.400000000001</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4886213</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="1">
+        <v>821191427193</v>
+      </c>
+      <c r="L8" s="3">
+        <v>48</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="14" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3">
+        <v>535</v>
+      </c>
+      <c r="H9" s="8">
+        <v>19194.400000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4858957</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="1">
+        <v>811191427806</v>
+      </c>
+      <c r="L9" s="3">
+        <v>49</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>422</v>
+      </c>
+      <c r="H10" s="8">
+        <v>15996.4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3450212</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="1">
+        <v>711226445547</v>
+      </c>
+      <c r="L10" s="3">
+        <v>50</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="82">
+        <f>SUM(G4:G33)</f>
+        <v>2747</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUM(H4:H33)</f>
+        <v>94857</v>
+      </c>
+      <c r="I34" s="22">
+        <f>SUM(I4:I33)</f>
+        <v>23126809</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="H38" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O9" r:id="rId1"/>
+    <hyperlink ref="O11" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O12" r:id="rId4"/>
+    <hyperlink ref="O13" r:id="rId5"/>
+    <hyperlink ref="O14" r:id="rId6"/>
+    <hyperlink ref="O15" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId8"/>
+</worksheet>
 </file>
--- a/ORIGENAL TEA RECEPIT-2021-22.xlsx
+++ b/ORIGENAL TEA RECEPIT-2021-22.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="267">
   <si>
     <t xml:space="preserve">NAME OF THE PARTEY </t>
   </si>
@@ -821,6 +821,21 @@
   </si>
   <si>
     <t>UP-17-T-8115</t>
+  </si>
+  <si>
+    <t>07.12.2021</t>
+  </si>
+  <si>
+    <t>GST/084/21-22</t>
+  </si>
+  <si>
+    <t>HR-55-T-8883</t>
+  </si>
+  <si>
+    <t>SLG/T/21-22/027</t>
+  </si>
+  <si>
+    <t>HR-55-R-9647</t>
   </si>
 </sst>
 </file>
@@ -1821,15 +1836,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,31 +1869,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5316,7 +5331,7 @@
       <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="100" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -5343,19 +5358,19 @@
       <c r="I4" s="25">
         <v>895436</v>
       </c>
-      <c r="J4" s="103" t="s">
+      <c r="J4" s="100" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="26">
         <v>801168568474</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="106" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="103"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
@@ -5380,15 +5395,15 @@
       <c r="I5" s="8">
         <v>577744.02</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="1">
         <v>891168758618</v>
       </c>
-      <c r="L5" s="101"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="99"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
@@ -5413,11 +5428,11 @@
       <c r="I6" s="8">
         <v>1204342</v>
       </c>
-      <c r="J6" s="99"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="1">
         <v>841168809656</v>
       </c>
-      <c r="L6" s="102"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1">
@@ -5499,7 +5514,7 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="99" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -5511,10 +5526,10 @@
       <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="99" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3">
@@ -5526,19 +5541,19 @@
       <c r="I9" s="8">
         <v>594350</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="99" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="1">
         <v>871171135828</v>
       </c>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="105" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="103"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
@@ -5548,8 +5563,8 @@
       <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="3">
         <v>60</v>
       </c>
@@ -5559,15 +5574,15 @@
       <c r="I10" s="8">
         <v>321048</v>
       </c>
-      <c r="J10" s="103"/>
+      <c r="J10" s="100"/>
       <c r="K10" s="1">
         <v>871171135828</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="99"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
@@ -5577,8 +5592,8 @@
       <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="3">
         <v>61</v>
       </c>
@@ -5588,15 +5603,15 @@
       <c r="I11" s="8">
         <v>402288</v>
       </c>
-      <c r="J11" s="99"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="1">
         <v>881171081582</v>
       </c>
-      <c r="L11" s="102"/>
+      <c r="L11" s="107"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="102" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -5608,10 +5623,10 @@
       <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3">
@@ -5623,19 +5638,19 @@
       <c r="I12" s="8">
         <v>836268</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="99" t="s">
         <v>48</v>
       </c>
       <c r="K12" s="1">
         <v>811172020749</v>
       </c>
-      <c r="L12" s="100" t="s">
+      <c r="L12" s="105" t="s">
         <v>49</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="106"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
@@ -5645,8 +5660,8 @@
       <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="3">
         <v>80</v>
       </c>
@@ -5656,15 +5671,15 @@
       <c r="I13" s="8">
         <v>519234</v>
       </c>
-      <c r="J13" s="103"/>
+      <c r="J13" s="100"/>
       <c r="K13" s="1">
         <v>841171151148</v>
       </c>
-      <c r="L13" s="101"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="106"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -5674,8 +5689,8 @@
       <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="3">
         <v>55</v>
       </c>
@@ -5685,15 +5700,15 @@
       <c r="I14" s="8">
         <v>352536</v>
       </c>
-      <c r="J14" s="103"/>
+      <c r="J14" s="100"/>
       <c r="K14" s="1">
         <v>831171155345</v>
       </c>
-      <c r="L14" s="101"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="106"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -5703,8 +5718,8 @@
       <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="3">
         <v>56</v>
       </c>
@@ -5714,15 +5729,15 @@
       <c r="I15" s="8">
         <v>327629</v>
       </c>
-      <c r="J15" s="103"/>
+      <c r="J15" s="100"/>
       <c r="K15" s="1">
         <v>871171629813</v>
       </c>
-      <c r="L15" s="101"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="107"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -5732,8 +5747,8 @@
       <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="3">
         <v>255</v>
       </c>
@@ -5743,11 +5758,11 @@
       <c r="I16" s="8">
         <v>1513993</v>
       </c>
-      <c r="J16" s="99"/>
+      <c r="J16" s="101"/>
       <c r="K16" s="1">
         <v>821171986036</v>
       </c>
-      <c r="L16" s="102"/>
+      <c r="L16" s="107"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13">
@@ -5817,19 +5832,19 @@
       <c r="I18" s="8">
         <v>1604280</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="99" t="s">
         <v>69</v>
       </c>
       <c r="K18" s="1">
         <v>881172137602</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="105" t="s">
         <v>70</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="104"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -5854,15 +5869,15 @@
       <c r="I19" s="8">
         <v>243996</v>
       </c>
-      <c r="J19" s="103"/>
+      <c r="J19" s="100"/>
       <c r="K19" s="76">
         <v>821172707366</v>
       </c>
-      <c r="L19" s="101"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="97"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="3" t="s">
         <v>65</v>
       </c>
@@ -5887,11 +5902,11 @@
       <c r="I20" s="8">
         <v>1452248</v>
       </c>
-      <c r="J20" s="99"/>
+      <c r="J20" s="101"/>
       <c r="K20" s="76">
         <v>881172798243</v>
       </c>
-      <c r="L20" s="102"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13">
@@ -6039,19 +6054,19 @@
       <c r="I24" s="8">
         <v>3645533</v>
       </c>
-      <c r="J24" s="98" t="s">
+      <c r="J24" s="99" t="s">
         <v>112</v>
       </c>
       <c r="K24" s="1">
         <v>831174684057</v>
       </c>
-      <c r="L24" s="98">
+      <c r="L24" s="99">
         <v>11</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="97"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="3" t="s">
         <v>159</v>
       </c>
@@ -6076,11 +6091,11 @@
       <c r="I25" s="8">
         <v>325061.09999999998</v>
       </c>
-      <c r="J25" s="99"/>
+      <c r="J25" s="101"/>
       <c r="K25" s="1">
         <v>881174092750</v>
       </c>
-      <c r="L25" s="99"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13">
@@ -6237,23 +6252,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="L9:L11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="L24:L25"/>
@@ -6270,6 +6268,23 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="J12:J16"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6521,19 +6536,19 @@
       <c r="I7" s="8">
         <v>491451</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="99" t="s">
         <v>156</v>
       </c>
       <c r="K7" s="1">
         <v>801172850747</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="99">
         <v>15</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1">
-      <c r="A8" s="97"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
@@ -6556,11 +6571,11 @@
       <c r="I8" s="8">
         <v>781083</v>
       </c>
-      <c r="J8" s="99"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="1">
         <v>761209661842</v>
       </c>
-      <c r="L8" s="99"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1">
@@ -7042,6 +7057,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
@@ -7053,12 +7074,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -7351,19 +7366,19 @@
       <c r="I8" s="8">
         <v>4516052</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="99" t="s">
         <v>147</v>
       </c>
       <c r="K8" s="1">
         <v>881182493028</v>
       </c>
-      <c r="L8" s="98">
+      <c r="L8" s="99">
         <v>23</v>
       </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1">
-      <c r="A9" s="97"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="3" t="s">
         <v>98</v>
       </c>
@@ -7388,30 +7403,30 @@
       <c r="I9" s="8">
         <v>509972.4</v>
       </c>
-      <c r="J9" s="99"/>
+      <c r="J9" s="101"/>
       <c r="K9" s="1">
         <v>811183220789</v>
       </c>
-      <c r="L9" s="99"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="99" t="s">
         <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="99">
         <v>38</v>
       </c>
       <c r="G10" s="3">
@@ -7423,26 +7438,26 @@
       <c r="I10" s="8">
         <v>3584915</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="99" t="s">
         <v>168</v>
       </c>
       <c r="K10" s="1">
         <v>781216134247</v>
       </c>
-      <c r="L10" s="98">
+      <c r="L10" s="99">
         <v>24</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="97"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="3">
         <v>60</v>
       </c>
@@ -7452,11 +7467,11 @@
       <c r="I11" s="8">
         <v>293198</v>
       </c>
-      <c r="J11" s="99"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="1">
         <v>701216135316</v>
       </c>
-      <c r="L11" s="99"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13">
@@ -7556,19 +7571,19 @@
       <c r="I15" s="8">
         <v>723901.5</v>
       </c>
-      <c r="J15" s="98" t="s">
+      <c r="J15" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="98">
+      <c r="K15" s="99">
         <v>7729654428</v>
       </c>
-      <c r="L15" s="98">
+      <c r="L15" s="99">
         <v>26</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="97"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
@@ -7593,9 +7608,9 @@
       <c r="I16" s="8">
         <v>438972</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13">
@@ -7935,6 +7950,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
@@ -7949,20 +7978,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -8081,10 +8096,10 @@
       <c r="C4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="110" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="3">
@@ -8120,8 +8135,8 @@
       <c r="C5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="3">
         <v>39</v>
       </c>
@@ -8157,8 +8172,8 @@
       <c r="C6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="3">
         <v>40</v>
       </c>
@@ -8195,7 +8210,7 @@
       <c r="D7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="99" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3">
@@ -8210,19 +8225,19 @@
       <c r="I7" s="8">
         <v>758863</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="99" t="s">
         <v>106</v>
       </c>
       <c r="K7" s="108">
         <v>7129946385</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="99">
         <v>32</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:20" s="14" customFormat="1">
-      <c r="A8" s="97"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="3" t="s">
         <v>185</v>
       </c>
@@ -8232,7 +8247,7 @@
       <c r="D8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
@@ -8245,9 +8260,9 @@
       <c r="I8" s="8">
         <v>1287402.48</v>
       </c>
-      <c r="J8" s="99"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="109"/>
-      <c r="L8" s="99"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:20" s="14" customFormat="1">
@@ -8263,10 +8278,10 @@
       <c r="D9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="99" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3">
@@ -8278,13 +8293,13 @@
       <c r="I9" s="8">
         <v>448233</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="99" t="s">
         <v>194</v>
       </c>
       <c r="K9" s="108">
         <v>7629863162</v>
       </c>
-      <c r="L9" s="98">
+      <c r="L9" s="99">
         <v>33</v>
       </c>
       <c r="M9" s="4"/>
@@ -8299,7 +8314,7 @@
       <c r="T9"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="104"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="3" t="s">
         <v>189</v>
       </c>
@@ -8309,8 +8324,8 @@
       <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="3">
         <v>70</v>
       </c>
@@ -8320,9 +8335,9 @@
       <c r="I10" s="8">
         <v>520416.75</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="103"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="4"/>
       <c r="N10" s="81"/>
       <c r="O10" s="81" t="s">
@@ -8335,7 +8350,7 @@
       <c r="T10"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="97"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="3" t="s">
         <v>191</v>
       </c>
@@ -8345,8 +8360,8 @@
       <c r="D11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="3">
         <v>160</v>
       </c>
@@ -8356,9 +8371,9 @@
       <c r="I11" s="8">
         <v>1333769</v>
       </c>
-      <c r="J11" s="99"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="109"/>
-      <c r="L11" s="99"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="4"/>
       <c r="N11" s="81"/>
       <c r="O11" s="81" t="s">
@@ -8383,7 +8398,7 @@
       <c r="D12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="99" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="3">
@@ -8398,13 +8413,13 @@
       <c r="I12" s="8">
         <v>4011751</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="99" t="s">
         <v>197</v>
       </c>
       <c r="K12" s="108">
         <v>7529927270</v>
       </c>
-      <c r="L12" s="98">
+      <c r="L12" s="99">
         <v>34</v>
       </c>
       <c r="M12" s="4"/>
@@ -8419,7 +8434,7 @@
       <c r="T12"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="97"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="3" t="s">
         <v>198</v>
       </c>
@@ -8429,7 +8444,7 @@
       <c r="D13" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
@@ -8442,9 +8457,9 @@
       <c r="I13" s="8">
         <v>44118.76</v>
       </c>
-      <c r="J13" s="99"/>
+      <c r="J13" s="101"/>
       <c r="K13" s="109"/>
-      <c r="L13" s="99"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="4"/>
       <c r="N13" s="81"/>
       <c r="O13" s="81" t="s">
@@ -8466,13 +8481,13 @@
       <c r="C14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="99">
         <v>42</v>
       </c>
       <c r="G14" s="3">
@@ -8514,9 +8529,9 @@
       <c r="C15" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="3">
         <v>280</v>
       </c>
@@ -8556,13 +8571,13 @@
       <c r="C16" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="99">
         <v>43</v>
       </c>
       <c r="G16" s="3">
@@ -8595,9 +8610,9 @@
       <c r="C17" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="3">
         <v>575</v>
       </c>
@@ -8646,19 +8661,19 @@
       <c r="I18" s="8">
         <v>864689.28</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="99" t="s">
         <v>218</v>
       </c>
       <c r="K18" s="108">
         <v>7730149616</v>
       </c>
-      <c r="L18" s="98">
+      <c r="L18" s="99">
         <v>39</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="97"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="3" t="s">
         <v>208</v>
       </c>
@@ -8683,9 +8698,9 @@
       <c r="I19" s="8">
         <v>2161955</v>
       </c>
-      <c r="J19" s="99"/>
+      <c r="J19" s="101"/>
       <c r="K19" s="109"/>
-      <c r="L19" s="99"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13">
@@ -8716,19 +8731,19 @@
       <c r="I20" s="8">
         <v>5201477</v>
       </c>
-      <c r="J20" s="98" t="s">
+      <c r="J20" s="99" t="s">
         <v>197</v>
       </c>
       <c r="K20" s="108">
         <v>7730162428</v>
       </c>
-      <c r="L20" s="98">
+      <c r="L20" s="99">
         <v>40</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="97"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="3" t="s">
         <v>183</v>
       </c>
@@ -8753,9 +8768,9 @@
       <c r="I21" s="8">
         <v>739393</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="101"/>
       <c r="K21" s="109"/>
-      <c r="L21" s="99"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13">
@@ -8888,7 +8903,7 @@
       <c r="D25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="99" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="3">
@@ -8903,13 +8918,13 @@
       <c r="I25" s="8">
         <v>4722067</v>
       </c>
-      <c r="J25" s="98" t="s">
+      <c r="J25" s="99" t="s">
         <v>121</v>
       </c>
       <c r="K25" s="108">
         <v>7130258419</v>
       </c>
-      <c r="L25" s="98">
+      <c r="L25" s="99">
         <v>44</v>
       </c>
       <c r="M25" s="4"/>
@@ -8927,7 +8942,7 @@
       <c r="D26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="99"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
@@ -8940,9 +8955,9 @@
       <c r="I26" s="8">
         <v>883267.88</v>
       </c>
-      <c r="J26" s="99"/>
+      <c r="J26" s="101"/>
       <c r="K26" s="109"/>
-      <c r="L26" s="99"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13">
@@ -9084,14 +9099,34 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
@@ -9106,34 +9141,14 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O9" r:id="rId1"/>
@@ -9157,7 +9172,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9300,10 +9315,10 @@
       <c r="C5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="99" t="s">
         <v>252</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="99" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="3">
@@ -9318,27 +9333,27 @@
       <c r="I5" s="8">
         <v>1328892</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="99" t="s">
         <v>253</v>
       </c>
       <c r="K5" s="1">
         <v>781225593806</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="99">
         <v>46</v>
       </c>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="97"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="80" t="s">
         <v>249</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="3">
         <v>46</v>
       </c>
@@ -9351,11 +9366,11 @@
       <c r="I6" s="8">
         <v>2301661</v>
       </c>
-      <c r="J6" s="99"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="1">
         <v>701225593464</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="101"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:20" s="14" customFormat="1">
@@ -9494,13 +9509,13 @@
       <c r="C10" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="99">
         <v>45</v>
       </c>
       <c r="G10" s="3">
@@ -9533,18 +9548,36 @@
       <c r="T10"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="2"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="3">
+        <v>265</v>
+      </c>
+      <c r="H11" s="8">
+        <v>8390.7000000000007</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1878657</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11" s="1">
+        <v>701226596800</v>
+      </c>
+      <c r="L11" s="3">
+        <v>51</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="81"/>
       <c r="O11" s="81" t="s">
@@ -9557,18 +9590,42 @@
       <c r="T11"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="2"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3">
+        <v>546</v>
+      </c>
+      <c r="H12" s="8">
+        <v>20028.2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5229433</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="1">
+        <v>861192894286</v>
+      </c>
+      <c r="L12" s="3">
+        <v>52</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="81"/>
       <c r="O12" s="81" t="s">
@@ -9933,15 +9990,15 @@
       <c r="F34" s="17"/>
       <c r="G34" s="82">
         <f>SUM(G4:G33)</f>
-        <v>2747</v>
+        <v>3558</v>
       </c>
       <c r="H34" s="22">
         <f>SUM(H4:H33)</f>
-        <v>94857</v>
+        <v>123275.9</v>
       </c>
       <c r="I34" s="22">
         <f>SUM(I4:I33)</f>
-        <v>23126809</v>
+        <v>30234899</v>
       </c>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -9955,7 +10012,15 @@
       <c r="H38" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
@@ -9970,11 +10035,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O9" r:id="rId1"/>
